--- a/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
@@ -998,7 +998,7 @@
         <v>228</v>
       </c>
       <c r="G9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>108</v>
@@ -1049,7 +1049,7 @@
         <v>228</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>107</v>
@@ -1103,7 +1103,7 @@
         <v>228</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>107</v>
@@ -1172,7 +1172,7 @@
         <v>228</v>
       </c>
       <c r="G12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>107</v>

--- a/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
@@ -998,7 +998,7 @@
         <v>228</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>108</v>
@@ -1049,7 +1049,7 @@
         <v>228</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>107</v>
@@ -1103,7 +1103,7 @@
         <v>228</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>107</v>
@@ -1172,7 +1172,7 @@
         <v>228</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>107</v>

--- a/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,34 +497,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+          <t>01fddebb1fe784a669f47c356f1e788b</t>
         </is>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.50_Human_chromosome1_659M14</t>
+          <t>1.00_Witch_flounder_Glyptocephalus_cynoglossus</t>
         </is>
       </c>
       <c r="D2">
-        <v>98.131</v>
+        <v>99.057</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>961</v>
       </c>
       <c r="H2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -533,67 +533,102 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2">
-        <v>1.41E-50</v>
+        <v>1.08E-51</v>
       </c>
       <c r="P2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Witch flounder</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Glyptocephalus cynoglossus</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Glyptocephalus</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>cynoglossus</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+          <t>01fddebb1fe784a669f47c356f1e788b</t>
         </is>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.50_Human_chromo4_AABC161701</t>
+          <t>1.00_Winter_or_Yellowtail_flounder_Pseudopleuronectes_americanus_or_Pleuronectes_ferrugineus</t>
         </is>
       </c>
       <c r="D3">
-        <v>98.131</v>
+        <v>99.057</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>961</v>
       </c>
       <c r="H3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -602,64 +637,89 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O3">
-        <v>1.41E-50</v>
+        <v>1.08E-51</v>
       </c>
       <c r="P3">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Winter or Yellowtail flounder</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+          <t>01fddebb1fe784a669f47c356f1e788b</t>
         </is>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.50_Human_chromo22_CH17297A18</t>
+          <t>1.00_Greenland_halibut_Reinhardtius_hippoglossoides</t>
         </is>
       </c>
       <c r="D4">
-        <v>98.131</v>
+        <v>98.113</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>961</v>
       </c>
       <c r="H4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -671,67 +731,102 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O4">
-        <v>1.41E-50</v>
+        <v>5.03E-50</v>
       </c>
       <c r="P4">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Greenland halibut</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Reinhardtius hippoglossoides</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Reinhardtius</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>hippoglossoides</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.50_Human_chromo2_RP1185C8</t>
+          <t>3.00_Human_mito1</t>
         </is>
       </c>
       <c r="D5">
-        <v>98.131</v>
+        <v>99.065</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>25780</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>107</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -749,10 +844,10 @@
         <v>107</v>
       </c>
       <c r="O5">
-        <v>1.41E-50</v>
+        <v>3.04E-52</v>
       </c>
       <c r="P5">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -773,34 +868,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.50_Human_chromo17_106I20</t>
+          <t>2.50_Human_chromo_mutS_5</t>
         </is>
       </c>
       <c r="D6">
-        <v>98.131</v>
+        <v>99.065</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>25780</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>107</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -818,10 +913,10 @@
         <v>107</v>
       </c>
       <c r="O6">
-        <v>1.41E-50</v>
+        <v>3.04E-52</v>
       </c>
       <c r="P6">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -842,7 +937,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7950b1078efc076defba9c936b970ef7</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B7">
@@ -850,26 +945,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.50_Human_chromo17_RP1113L8</t>
+          <t>3.00_Human_mito6</t>
         </is>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>98.131</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25780</v>
       </c>
       <c r="G7">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>107</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -887,10 +982,10 @@
         <v>107</v>
       </c>
       <c r="O7">
-        <v>6.53E-54</v>
+        <v>1.41E-50</v>
       </c>
       <c r="P7">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -911,7 +1006,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7950b1078efc076defba9c936b970ef7</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B8">
@@ -919,32 +1014,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.50_Human_chromo17_RP1113L8b</t>
+          <t>3.00_Human_mito5</t>
         </is>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>98.131</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>25780</v>
       </c>
       <c r="G8">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>107</v>
@@ -953,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O8">
-        <v>2.35E-53</v>
+        <v>1.41E-50</v>
       </c>
       <c r="P8">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -980,7 +1075,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B9">
@@ -988,23 +1083,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.00_Great_black_backed_gull_others</t>
+          <t>3.00_Human_mito4</t>
         </is>
       </c>
       <c r="D9">
+        <v>98.131</v>
+      </c>
+      <c r="E9">
         <v>100</v>
       </c>
       <c r="F9">
-        <v>228</v>
+        <v>25780</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1013,25 +1111,40 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O9">
-        <v>1.84E-54</v>
+        <v>1.41E-50</v>
       </c>
       <c r="P9">
-        <v>200</v>
+        <v>187</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B10">
@@ -1039,23 +1152,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.00_Great_black_backed_gull_and_other_Larus_gulls</t>
+          <t>3.00_Human_mito3</t>
         </is>
       </c>
       <c r="D10">
+        <v>98.131</v>
+      </c>
+      <c r="E10">
         <v>100</v>
       </c>
       <c r="F10">
-        <v>228</v>
+        <v>25780</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H10">
         <v>107</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1073,16 +1189,31 @@
         <v>107</v>
       </c>
       <c r="O10">
-        <v>6.6E-54</v>
+        <v>1.41E-50</v>
       </c>
       <c r="P10">
-        <v>198</v>
+        <v>187</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>1535a44c66f8850e6d30284f8ddeb38d</t>
         </is>
       </c>
       <c r="B11">
@@ -1090,26 +1221,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.00_Ring_billed_gull_Larus_delawarensis</t>
+          <t>3.00_Human_mito2</t>
         </is>
       </c>
       <c r="D11">
-        <v>99.065</v>
+        <v>98.131</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>228</v>
+        <v>25780</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H11">
         <v>107</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1127,91 +1258,6052 @@
         <v>107</v>
       </c>
       <c r="O11">
-        <v>3.07E-52</v>
+        <v>1.41E-50</v>
       </c>
       <c r="P11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Ring billed gull</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Larus delawarensis</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Human</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>15e97dd1453cc2ecb8b5082f9b514004</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.00_Netta_rufina99</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>98.148</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="F12">
+        <v>1847</v>
+      </c>
+      <c r="G12">
+        <v>319</v>
+      </c>
+      <c r="H12">
+        <v>108</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>108</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>108</v>
+      </c>
+      <c r="O12">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P12">
+        <v>189</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Netta rufina</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Netta rufina</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15e97dd1453cc2ecb8b5082f9b514004</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.00_common eider_Somateria mollissima_OR_Bufflehead_bucephala albeola_OR_other eiders sea ducks</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>98.148</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>1847</v>
+      </c>
+      <c r="G13">
+        <v>319</v>
+      </c>
+      <c r="H13">
+        <v>108</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>108</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>108</v>
+      </c>
+      <c r="O13">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P13">
+        <v>189</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Common eider or bufflehead or other sea ducks</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Merginae sp</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19e9bb4db2de6c4f1196cdaf18e908e5</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.10_Tautog_Tautoga_onitis_cluster2</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>99.057</v>
+      </c>
+      <c r="F14">
+        <v>575</v>
+      </c>
+      <c r="G14">
+        <v>587</v>
+      </c>
+      <c r="H14">
+        <v>106</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>106</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>106</v>
+      </c>
+      <c r="O14">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P14">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>19e9bb4db2de6c4f1196cdaf18e908e5</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.00_Tautog_Tautoga_onitis</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>99.057</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>575</v>
+      </c>
+      <c r="G15">
+        <v>587</v>
+      </c>
+      <c r="H15">
+        <v>106</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>106</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>106</v>
+      </c>
+      <c r="O15">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P15">
+        <v>191</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Tautog</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Tautoga onitis</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Eupercaria/misc</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Labridae</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Tautoga</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>onitis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>19e9bb4db2de6c4f1196cdaf18e908e5</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.10_Tautog_Tautoga_onitis_cluster3</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>98.113</v>
+      </c>
+      <c r="F16">
+        <v>575</v>
+      </c>
+      <c r="G16">
+        <v>587</v>
+      </c>
+      <c r="H16">
+        <v>106</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>106</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>106</v>
+      </c>
+      <c r="O16">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>19e9bb4db2de6c4f1196cdaf18e908e5</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.10_Tautog_cluster4</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>98.113</v>
+      </c>
+      <c r="F17">
+        <v>575</v>
+      </c>
+      <c r="G17">
+        <v>587</v>
+      </c>
+      <c r="H17">
+        <v>106</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>106</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>106</v>
+      </c>
+      <c r="O17">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P17">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1b7bef208071964dff913b3e58cc6deb</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_RP1113L8b</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>3634</v>
+      </c>
+      <c r="G18">
+        <v>206</v>
+      </c>
+      <c r="H18">
+        <v>106</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>107</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>106</v>
+      </c>
+      <c r="O18">
+        <v>2.35E-53</v>
+      </c>
+      <c r="P18">
+        <v>196</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1b7bef208071964dff913b3e58cc6deb</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_RP1113L8</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>3634</v>
+      </c>
+      <c r="G19">
+        <v>206</v>
+      </c>
+      <c r="H19">
+        <v>106</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>107</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>107</v>
+      </c>
+      <c r="O19">
+        <v>2.35E-53</v>
+      </c>
+      <c r="P19">
+        <v>196</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20a9b66022e64e1ed2b8c4527d0ff2ac</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_and_other_Larus_gulls</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>123385</v>
+      </c>
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>108</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>108</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>108</v>
+      </c>
+      <c r="O20">
+        <v>1.84E-54</v>
+      </c>
+      <c r="P20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20a9b66022e64e1ed2b8c4527d0ff2ac</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_others</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>123385</v>
+      </c>
+      <c r="G21">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>107</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>107</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>107</v>
+      </c>
+      <c r="O21">
+        <v>6.6E-54</v>
+      </c>
+      <c r="P21">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20a9b66022e64e1ed2b8c4527d0ff2ac</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2.00_Ring_billed_gull_Larus_delawarensis</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>99.074</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>123385</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>108</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>108</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>108</v>
+      </c>
+      <c r="O22">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P22">
+        <v>195</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Ring billed gull</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Larus delawarensis</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20a9b66022e64e1ed2b8c4527d0ff2ac</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2.00_Laughing_gull_Larus_atricilla</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>99.074</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>123385</v>
+      </c>
+      <c r="G23">
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <v>108</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>108</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>108</v>
+      </c>
+      <c r="O23">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P23">
+        <v>195</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Laughing gull</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Larus atricilla</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25546baa5802e7d9f399a082226768a1</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.10_Mummichog_Fundulus_heteroclitus_cluster2</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>99.048</v>
+      </c>
+      <c r="F24">
+        <v>122</v>
+      </c>
+      <c r="G24">
+        <v>876</v>
+      </c>
+      <c r="H24">
+        <v>105</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>105</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>105</v>
+      </c>
+      <c r="O24">
+        <v>3.85E-51</v>
+      </c>
+      <c r="P24">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>25546baa5802e7d9f399a082226768a1</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.00_Mummichog_Fundulus_heteroclitus</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>99.048</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>122</v>
+      </c>
+      <c r="G25">
+        <v>876</v>
+      </c>
+      <c r="H25">
+        <v>105</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>105</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>105</v>
+      </c>
+      <c r="O25">
+        <v>3.85E-51</v>
+      </c>
+      <c r="P25">
+        <v>189</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Mummichog</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Fundulus heteroclitus</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Cyprinodontiformes</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Fundulidae</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Fundulus</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>heteroclitus</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25546baa5802e7d9f399a082226768a1</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1.10_Mummichog_Fundulus_heteroclitus_cluster3</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>98.095</v>
+      </c>
+      <c r="F26">
+        <v>122</v>
+      </c>
+      <c r="G26">
+        <v>876</v>
+      </c>
+      <c r="H26">
+        <v>105</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>105</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>105</v>
+      </c>
+      <c r="O26">
+        <v>1.79E-49</v>
+      </c>
+      <c r="P26">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>267d361028b5d98f0610470de52f3135</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo4_AABC161701</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>98.131</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>170</v>
+      </c>
+      <c r="G27">
+        <v>802</v>
+      </c>
+      <c r="H27">
+        <v>107</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>107</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>107</v>
+      </c>
+      <c r="O27">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P27">
+        <v>187</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>267d361028b5d98f0610470de52f3135</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo4_96</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>98.131</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>170</v>
+      </c>
+      <c r="G28">
+        <v>802</v>
+      </c>
+      <c r="H28">
+        <v>107</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>107</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>107</v>
+      </c>
+      <c r="O28">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P28">
+        <v>187</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>267d361028b5d98f0610470de52f3135</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo2_RP1185C8</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>98.131</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>170</v>
+      </c>
+      <c r="G29">
+        <v>802</v>
+      </c>
+      <c r="H29">
+        <v>107</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>107</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>107</v>
+      </c>
+      <c r="O29">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P29">
+        <v>187</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2744f56d73d9591aa2ddedd05637bb27</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.00_Winter_or_Yellowtail_flounder_Pseudopleuronectes_americanus_or_Pleuronectes_ferrugineus</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>99.038</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>19800</v>
+      </c>
+      <c r="G30">
+        <v>81</v>
+      </c>
+      <c r="H30">
+        <v>104</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>104</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>104</v>
+      </c>
+      <c r="O30">
+        <v>1.4E-50</v>
+      </c>
+      <c r="P30">
+        <v>187</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Winter or Yellowtail flounder</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2744f56d73d9591aa2ddedd05637bb27</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.00_American_plaice_Hippoglossoides_platessoides_also_matches_Winter_flounder_refseq</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>99.038</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>19800</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>104</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>104</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>104</v>
+      </c>
+      <c r="O31">
+        <v>1.4E-50</v>
+      </c>
+      <c r="P31">
+        <v>187</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>American plaice or Winter flounder</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Hippoglossoides platessoides or Pseudopleuronectes americanus</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2744f56d73d9591aa2ddedd05637bb27</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1.00_Witch_flounder_Glyptocephalus_cynoglossus</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>98.077</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>19800</v>
+      </c>
+      <c r="G32">
+        <v>81</v>
+      </c>
+      <c r="H32">
+        <v>104</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>104</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>104</v>
+      </c>
+      <c r="O32">
+        <v>6.51E-49</v>
+      </c>
+      <c r="P32">
+        <v>182</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Witch flounder</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Glyptocephalus cynoglossus</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Glyptocephalus</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>cynoglossus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2744f56d73d9591aa2ddedd05637bb27</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.00_Greenland_halibut_Reinhardtius_hippoglossoides</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>98.077</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>19800</v>
+      </c>
+      <c r="G33">
+        <v>81</v>
+      </c>
+      <c r="H33">
+        <v>104</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>104</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>104</v>
+      </c>
+      <c r="O33">
+        <v>6.51E-49</v>
+      </c>
+      <c r="P33">
+        <v>182</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Greenland halibut</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Reinhardtius hippoglossoides</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Reinhardtius</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>hippoglossoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromosome1_659M14</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>98.131</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>178</v>
+      </c>
+      <c r="G34">
+        <v>796</v>
+      </c>
+      <c r="H34">
+        <v>107</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>107</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>107</v>
+      </c>
+      <c r="O34">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P34">
+        <v>187</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo4_AABC161701</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>98.131</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>178</v>
+      </c>
+      <c r="G35">
+        <v>796</v>
+      </c>
+      <c r="H35">
+        <v>107</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>107</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>107</v>
+      </c>
+      <c r="O35">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P35">
+        <v>187</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo22_CH17297A18</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>98.131</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>178</v>
+      </c>
+      <c r="G36">
+        <v>796</v>
+      </c>
+      <c r="H36">
+        <v>107</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>107</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>107</v>
+      </c>
+      <c r="O36">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P36">
+        <v>187</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo2_RP1185C8</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>98.131</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>178</v>
+      </c>
+      <c r="G37">
+        <v>796</v>
+      </c>
+      <c r="H37">
+        <v>107</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>107</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>107</v>
+      </c>
+      <c r="O37">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P37">
+        <v>187</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>282aac0ec13fc675ac82d31f2b3e70e9</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_106I20</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>98.131</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>178</v>
+      </c>
+      <c r="G38">
+        <v>796</v>
+      </c>
+      <c r="H38">
+        <v>107</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>107</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>107</v>
+      </c>
+      <c r="O38">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P38">
+        <v>187</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3c9eb8c1331eb489362d38e06418d609</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito1</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>98.131</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>208</v>
+      </c>
+      <c r="G39">
+        <v>771</v>
+      </c>
+      <c r="H39">
+        <v>107</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>107</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>107</v>
+      </c>
+      <c r="O39">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P39">
+        <v>187</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3c9eb8c1331eb489362d38e06418d609</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2.50_Human_chromo_mutS_5</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>98.131</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>208</v>
+      </c>
+      <c r="G40">
+        <v>771</v>
+      </c>
+      <c r="H40">
+        <v>107</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>107</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>107</v>
+      </c>
+      <c r="O40">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P40">
+        <v>187</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4450a6fa10b56881617cff33c5585aa8</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1.10_Mummichog_Fundulus_heteroclitus_cluster3</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>99.048</v>
+      </c>
+      <c r="F41">
+        <v>2273</v>
+      </c>
+      <c r="G41">
+        <v>274</v>
+      </c>
+      <c r="H41">
+        <v>105</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>105</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>105</v>
+      </c>
+      <c r="O41">
+        <v>3.85E-51</v>
+      </c>
+      <c r="P41">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4450a6fa10b56881617cff33c5585aa8</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1.00_Mummichog_Fundulus_heteroclitus</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>99.048</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>2273</v>
+      </c>
+      <c r="G42">
+        <v>274</v>
+      </c>
+      <c r="H42">
+        <v>105</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>105</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>105</v>
+      </c>
+      <c r="O42">
+        <v>3.85E-51</v>
+      </c>
+      <c r="P42">
+        <v>189</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Mummichog</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Fundulus heteroclitus</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Cyprinodontiformes</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Fundulidae</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Fundulus</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>heteroclitus</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4450a6fa10b56881617cff33c5585aa8</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.10_Mummichog_Fundulus_heteroclitus_cluster2</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>98.095</v>
+      </c>
+      <c r="F43">
+        <v>2273</v>
+      </c>
+      <c r="G43">
+        <v>274</v>
+      </c>
+      <c r="H43">
+        <v>105</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>105</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>105</v>
+      </c>
+      <c r="O43">
+        <v>1.79E-49</v>
+      </c>
+      <c r="P43">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>46db97c5565c94eb6c74f3e91483addd</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1.00_Northern_sand_lance_Ammodytes_dubius</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>98.113</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>579</v>
+      </c>
+      <c r="G44">
+        <v>582</v>
+      </c>
+      <c r="H44">
+        <v>106</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>106</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>106</v>
+      </c>
+      <c r="O44">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P44">
+        <v>185</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Northern sand lance</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Ammodytes dubius</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Perciformes/Uranoscopoidei</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ammodytidae</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Ammodytes</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>dubius</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>46db97c5565c94eb6c74f3e91483addd</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1.00_American_or_Pacific_sand_lance_Ammodytes_americanus_or_hexapterus</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>98.113</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>579</v>
+      </c>
+      <c r="G45">
+        <v>582</v>
+      </c>
+      <c r="H45">
+        <v>106</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>106</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>106</v>
+      </c>
+      <c r="O45">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P45">
+        <v>185</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>American or Pacific sand lance</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Ammodytes americanus or hexapterus</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Perciformes/Scorpaenoidei</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Ammodytidae</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Ammodytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6a64d4fff211d1b76340f27d938e23cb</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1.00_Winter_or_Yellowtail_flounder_Pseudopleuronectes_americanus_or_Pleuronectes_ferrugineus</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>99.057</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>914</v>
+      </c>
+      <c r="G46">
+        <v>468</v>
+      </c>
+      <c r="H46">
+        <v>106</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>106</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>106</v>
+      </c>
+      <c r="O46">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P46">
+        <v>191</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Winter or Yellowtail flounder</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6a64d4fff211d1b76340f27d938e23cb</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.00_Greenland_halibut_Reinhardtius_hippoglossoides</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>99.057</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>914</v>
+      </c>
+      <c r="G47">
+        <v>468</v>
+      </c>
+      <c r="H47">
+        <v>106</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>106</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>106</v>
+      </c>
+      <c r="O47">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P47">
+        <v>191</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Greenland halibut</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Reinhardtius hippoglossoides</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Reinhardtius</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>hippoglossoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6a64d4fff211d1b76340f27d938e23cb</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1.00_American_plaice_Hippoglossoides_platessoides_also_matches_Winter_flounder_refseq</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>99.057</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>914</v>
+      </c>
+      <c r="G48">
+        <v>468</v>
+      </c>
+      <c r="H48">
+        <v>106</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>106</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>106</v>
+      </c>
+      <c r="O48">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P48">
+        <v>191</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>American plaice or Winter flounder</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Hippoglossoides platessoides or Pseudopleuronectes americanus</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6a64d4fff211d1b76340f27d938e23cb</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1.00_Witch_flounder_Glyptocephalus_cynoglossus</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>98.113</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>914</v>
+      </c>
+      <c r="G49">
+        <v>468</v>
+      </c>
+      <c r="H49">
+        <v>106</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>106</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>106</v>
+      </c>
+      <c r="O49">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P49">
+        <v>185</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Witch flounder</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Glyptocephalus cynoglossus</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Glyptocephalus</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>cynoglossus</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6a64d4fff211d1b76340f27d938e23cb</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1.00_Atlantic_halibut_Hippoglossus_sp</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>98.113</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>914</v>
+      </c>
+      <c r="G50">
+        <v>468</v>
+      </c>
+      <c r="H50">
+        <v>106</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>106</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>106</v>
+      </c>
+      <c r="O50">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P50">
+        <v>185</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Atlantic halibut</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Hippoglossus hippoglossus</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Pleuronectiformes</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Pleuronectidae</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Hippoglossus</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>hippoglossus</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7950b1078efc076defba9c936b970ef7</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_RP1113L8</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>1036</v>
+      </c>
+      <c r="G51">
+        <v>441</v>
+      </c>
+      <c r="H51">
+        <v>107</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>107</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>107</v>
+      </c>
+      <c r="O51">
+        <v>6.53E-54</v>
+      </c>
+      <c r="P51">
+        <v>198</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7950b1078efc076defba9c936b970ef7</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_RP1113L8b</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>1036</v>
+      </c>
+      <c r="G52">
+        <v>441</v>
+      </c>
+      <c r="H52">
+        <v>106</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>107</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>106</v>
+      </c>
+      <c r="O52">
+        <v>2.35E-53</v>
+      </c>
+      <c r="P52">
+        <v>196</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>80c040f8fa7ca320845742c52669d5e9</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2.00_Netta_rufina99</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>99.074</v>
+      </c>
+      <c r="E53">
+        <v>99</v>
+      </c>
+      <c r="F53">
+        <v>8458</v>
+      </c>
+      <c r="G53">
+        <v>132</v>
+      </c>
+      <c r="H53">
+        <v>108</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>108</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>108</v>
+      </c>
+      <c r="O53">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P53">
+        <v>195</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Netta rufina</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Netta rufina</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>80c040f8fa7ca320845742c52669d5e9</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2.00_common eider_Somateria mollissima_OR_Bufflehead_bucephala albeola_OR_other eiders sea ducks</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>99.074</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
+        <v>8458</v>
+      </c>
+      <c r="G54">
+        <v>132</v>
+      </c>
+      <c r="H54">
+        <v>108</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>108</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>108</v>
+      </c>
+      <c r="O54">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P54">
+        <v>195</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Common eider or bufflehead or other sea ducks</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Merginae sp</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>80c040f8fa7ca320845742c52669d5e9</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2.00_Mallard_other_Anas_sp</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>98.148</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
+        <v>8458</v>
+      </c>
+      <c r="G55">
+        <v>132</v>
+      </c>
+      <c r="H55">
+        <v>108</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>108</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>108</v>
+      </c>
+      <c r="O55">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P55">
+        <v>189</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Mallard sp</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Anas sp</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>80c040f8fa7ca320845742c52669d5e9</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2.00_Long tailed duck (Clangula hyemalis)_OR_other ducks</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>98.148</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <v>8458</v>
+      </c>
+      <c r="G56">
+        <v>132</v>
+      </c>
+      <c r="H56">
+        <v>108</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>108</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>108</v>
+      </c>
+      <c r="O56">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P56">
+        <v>189</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Long tailed duck or other ducks</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Clangula hyemalis or other Anatidae sp</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>911894fe810a42fd66c3c43018d29753</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1.10_Atlantic_menhaden_LS15_Brevoortia_tyrannus</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>99.057</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <v>2876</v>
+      </c>
+      <c r="G57">
+        <v>238</v>
+      </c>
+      <c r="H57">
+        <v>106</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>106</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>106</v>
+      </c>
+      <c r="O57">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P57">
+        <v>191</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Atlantic menhaden</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Brevoortia tyrannus</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Clupeiformes</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Alosidae</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Brevoortia</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>tyrannus</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>911894fe810a42fd66c3c43018d29753</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1.00_Atlantic_menhaden_LS16_or_river_herrings_Clupeidae_sp</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>99.057</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>2876</v>
+      </c>
+      <c r="G58">
+        <v>238</v>
+      </c>
+      <c r="H58">
+        <v>106</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>106</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>106</v>
+      </c>
+      <c r="O58">
+        <v>1.08E-51</v>
+      </c>
+      <c r="P58">
+        <v>191</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Atlantic menhaden or River herrings</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Clupeidae sp</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Clupeiformes</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Clupeidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>911894fe810a42fd66c3c43018d29753</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1.00_Atlantic_menhaden_Brevoortia_tyrannus_LS17</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>98.113</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>2876</v>
+      </c>
+      <c r="G59">
+        <v>238</v>
+      </c>
+      <c r="H59">
+        <v>106</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>106</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>106</v>
+      </c>
+      <c r="O59">
+        <v>5.03E-50</v>
+      </c>
+      <c r="P59">
+        <v>185</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Atlantic menhaden</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Brevoortia tyrannus</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Teleost Fish</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Teleostei</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Clupeiformes</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Alosidae</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Brevoortia</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>tyrannus</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>97692e77675cee377312fb71ecc51b4e</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2.00_Great Shearwater_Ardenna gravis</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>41915</v>
+      </c>
+      <c r="G60">
+        <v>61</v>
+      </c>
+      <c r="H60">
+        <v>108</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>108</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>108</v>
+      </c>
+      <c r="O60">
+        <v>1.84E-54</v>
+      </c>
+      <c r="P60">
+        <v>200</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Great Shearwater</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Ardenna gravis</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>97692e77675cee377312fb71ecc51b4e</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2.00_scopolis shearwater_Calonectris diomedea_OR_corys shearwater_Calonectris borealis</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>99.074</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>41915</v>
+      </c>
+      <c r="G61">
+        <v>61</v>
+      </c>
+      <c r="H61">
+        <v>108</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>108</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>108</v>
+      </c>
+      <c r="O61">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P61">
+        <v>195</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Scopoli's shearwater or Cory's shearwater</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Calonectris diomedea or Calonectris borealis</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>97692e77675cee377312fb71ecc51b4e</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2.00_shearwater Puffinus species__sooty shearwater_Puffinus griseus_OR_great shearwater_Puffinus gravis shortRef</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <v>41915</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <v>103</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>108</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>103</v>
+      </c>
+      <c r="O62">
+        <v>1.11E-51</v>
+      </c>
+      <c r="P62">
+        <v>191</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Great or Sooty shearwater</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Ardenna griseus or Ardenna gravis</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>9f0c60d28f7c1bc1c462a9092bf3cda7</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2.00_Ring_billed_gull_Larus_delawarensis</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>99.074</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>1037</v>
+      </c>
+      <c r="H63">
+        <v>108</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>108</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>108</v>
+      </c>
+      <c r="O63">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P63">
+        <v>195</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Ring billed gull</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Larus delawarensis</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>9f0c60d28f7c1bc1c462a9092bf3cda7</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_and_other_Larus_gulls</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>99.074</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>1037</v>
+      </c>
+      <c r="H64">
+        <v>108</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>108</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>108</v>
+      </c>
+      <c r="O64">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P64">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>9f0c60d28f7c1bc1c462a9092bf3cda7</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_others</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>99.065</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>1037</v>
+      </c>
+      <c r="H65">
+        <v>107</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>107</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>107</v>
+      </c>
+      <c r="O65">
+        <v>3.07E-52</v>
+      </c>
+      <c r="P65">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>9f0c60d28f7c1bc1c462a9092bf3cda7</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2.00_Laughing_gull_Larus_atricilla</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>98.148</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>1037</v>
+      </c>
+      <c r="H66">
+        <v>108</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>108</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>108</v>
+      </c>
+      <c r="O66">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P66">
+        <v>189</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Laughing gull</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Larus atricilla</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>b29a188a6e4589bbbcc9ae9c5e5570bd</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2.00_Netta_rufina99</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>98.148</v>
+      </c>
+      <c r="E67">
+        <v>99</v>
+      </c>
+      <c r="F67">
+        <v>9688</v>
+      </c>
+      <c r="G67">
+        <v>123</v>
+      </c>
+      <c r="H67">
+        <v>108</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>108</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>108</v>
+      </c>
+      <c r="O67">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P67">
+        <v>189</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Netta rufina</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Netta rufina</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>b29a188a6e4589bbbcc9ae9c5e5570bd</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2.00_Mallard_other_Anas_sp</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>98.148</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>9688</v>
+      </c>
+      <c r="G68">
+        <v>123</v>
+      </c>
+      <c r="H68">
+        <v>108</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>108</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>108</v>
+      </c>
+      <c r="O68">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P68">
+        <v>189</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Mallard sp</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Anas sp</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>b29a188a6e4589bbbcc9ae9c5e5570bd</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2.00_common eider_Somateria mollissima_OR_Bufflehead_bucephala albeola_OR_other eiders sea ducks</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>98.148</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>9688</v>
+      </c>
+      <c r="G69">
+        <v>123</v>
+      </c>
+      <c r="H69">
+        <v>108</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>108</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>108</v>
+      </c>
+      <c r="O69">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P69">
+        <v>189</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Common eider or bufflehead or other sea ducks</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Merginae sp</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ba9d084edcf15b5ebdecedeccda0c8c7</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_and_other_Larus_gulls</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>5422</v>
+      </c>
+      <c r="G70">
+        <v>166</v>
+      </c>
+      <c r="H70">
+        <v>108</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>109</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>108</v>
+      </c>
+      <c r="O70">
+        <v>1.86E-54</v>
+      </c>
+      <c r="P70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ba9d084edcf15b5ebdecedeccda0c8c7</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_others</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <v>5422</v>
+      </c>
+      <c r="G71">
+        <v>166</v>
+      </c>
+      <c r="H71">
+        <v>107</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>108</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>107</v>
+      </c>
+      <c r="O71">
+        <v>6.670000000000001E-54</v>
+      </c>
+      <c r="P71">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ba9d084edcf15b5ebdecedeccda0c8c7</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2.00_Ring_billed_gull_Larus_delawarensis</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>99.074</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <v>5422</v>
+      </c>
+      <c r="G72">
+        <v>166</v>
+      </c>
+      <c r="H72">
+        <v>108</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>109</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>108</v>
+      </c>
+      <c r="O72">
+        <v>8.629999999999999E-53</v>
+      </c>
+      <c r="P72">
+        <v>195</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Ring billed gull</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Larus delawarensis</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ba9d084edcf15b5ebdecedeccda0c8c7</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2.00_Laughing_gull_Larus_atricilla</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>99.074</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <v>5422</v>
+      </c>
+      <c r="G73">
+        <v>166</v>
+      </c>
+      <c r="H73">
+        <v>108</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>109</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>108</v>
+      </c>
+      <c r="O73">
+        <v>8.629999999999999E-53</v>
+      </c>
+      <c r="P73">
+        <v>195</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Laughing gull</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Larus atricilla</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>c0a3f3ed23f04247d92740a9502f8b57</t>
         </is>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_others</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>12181</v>
+      </c>
+      <c r="G74">
+        <v>107</v>
+      </c>
+      <c r="H74">
+        <v>108</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>108</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>108</v>
+      </c>
+      <c r="O74">
+        <v>1.84E-54</v>
+      </c>
+      <c r="P74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_and_other_Larus_gulls</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <v>12181</v>
+      </c>
+      <c r="G75">
+        <v>107</v>
+      </c>
+      <c r="H75">
+        <v>107</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>107</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>107</v>
+      </c>
+      <c r="O75">
+        <v>6.6E-54</v>
+      </c>
+      <c r="P75">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2.00_Ring_billed_gull_Larus_delawarensis</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>99.065</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>12181</v>
+      </c>
+      <c r="G76">
+        <v>107</v>
+      </c>
+      <c r="H76">
+        <v>107</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>107</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>107</v>
+      </c>
+      <c r="O76">
+        <v>3.07E-52</v>
+      </c>
+      <c r="P76">
+        <v>193</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Ring billed gull</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Larus delawarensis</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>2.00_Laughing_gull_Larus_atricilla</t>
         </is>
       </c>
-      <c r="D12">
+      <c r="D77">
         <v>99.065</v>
       </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>228</v>
-      </c>
-      <c r="G12">
-        <v>41</v>
-      </c>
-      <c r="H12">
-        <v>107</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>107</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>107</v>
-      </c>
-      <c r="O12">
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>12181</v>
+      </c>
+      <c r="G77">
+        <v>107</v>
+      </c>
+      <c r="H77">
+        <v>107</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>107</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>107</v>
+      </c>
+      <c r="O77">
         <v>3.07E-52</v>
       </c>
-      <c r="P12">
+      <c r="P77">
         <v>193</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>Laughing gull</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>Larus atricilla</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito1</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>837</v>
+      </c>
+      <c r="G78">
+        <v>495</v>
+      </c>
+      <c r="H78">
+        <v>104</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>104</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>104</v>
+      </c>
+      <c r="O78">
+        <v>3.04E-52</v>
+      </c>
+      <c r="P78">
+        <v>193</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito2</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>837</v>
+      </c>
+      <c r="G79">
+        <v>495</v>
+      </c>
+      <c r="H79">
+        <v>102</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>102</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>102</v>
+      </c>
+      <c r="O79">
+        <v>3.93E-51</v>
+      </c>
+      <c r="P79">
+        <v>189</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito6</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>99.038</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <v>837</v>
+      </c>
+      <c r="G80">
+        <v>495</v>
+      </c>
+      <c r="H80">
+        <v>104</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>104</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>104</v>
+      </c>
+      <c r="O80">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P80">
+        <v>187</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito5</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>99.038</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <v>837</v>
+      </c>
+      <c r="G81">
+        <v>495</v>
+      </c>
+      <c r="H81">
+        <v>104</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>104</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>104</v>
+      </c>
+      <c r="O81">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P81">
+        <v>187</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito4</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>99.038</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>837</v>
+      </c>
+      <c r="G82">
+        <v>495</v>
+      </c>
+      <c r="H82">
+        <v>104</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>104</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>104</v>
+      </c>
+      <c r="O82">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P82">
+        <v>187</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3.00_Human_mito3</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>99.038</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>837</v>
+      </c>
+      <c r="G83">
+        <v>495</v>
+      </c>
+      <c r="H83">
+        <v>104</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>104</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>104</v>
+      </c>
+      <c r="O83">
+        <v>1.41E-50</v>
+      </c>
+      <c r="P83">
+        <v>187</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>d66441776b9986f2d4a95cf5895dc693</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2.50_Human_chromo_mutS_5</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>98.077</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>837</v>
+      </c>
+      <c r="G84">
+        <v>495</v>
+      </c>
+      <c r="H84">
+        <v>104</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>104</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>104</v>
+      </c>
+      <c r="O84">
+        <v>6.58E-49</v>
+      </c>
+      <c r="P84">
+        <v>182</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>d9aff8e5fde346fe4ae2aa2c21952512</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_RP1113L8b</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>1365</v>
+      </c>
+      <c r="G85">
+        <v>377</v>
+      </c>
+      <c r="H85">
+        <v>106</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>106</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>106</v>
+      </c>
+      <c r="O85">
+        <v>2.32E-53</v>
+      </c>
+      <c r="P85">
+        <v>196</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>d9aff8e5fde346fe4ae2aa2c21952512</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3.50_Human_chromo17_RP1113L8</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>1365</v>
+      </c>
+      <c r="G86">
+        <v>377</v>
+      </c>
+      <c r="H86">
+        <v>106</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>106</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>107</v>
+      </c>
+      <c r="O86">
+        <v>2.32E-53</v>
+      </c>
+      <c r="P86">
+        <v>196</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Homo sapiens</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>e0848e25382836806b28673b01f892a2</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_and_other_Larus_gulls</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>371</v>
+      </c>
+      <c r="G87">
+        <v>671</v>
+      </c>
+      <c r="H87">
+        <v>107</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>108</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>108</v>
+      </c>
+      <c r="O87">
+        <v>6.6E-54</v>
+      </c>
+      <c r="P87">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>e0848e25382836806b28673b01f892a2</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2.00_Great_black_backed_gull_others</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="F88">
+        <v>371</v>
+      </c>
+      <c r="G88">
+        <v>671</v>
+      </c>
+      <c r="H88">
+        <v>106</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>107</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>107</v>
+      </c>
+      <c r="O88">
+        <v>2.38E-53</v>
+      </c>
+      <c r="P88">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>e0848e25382836806b28673b01f892a2</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2.00_Ring_billed_gull_Larus_delawarensis</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>99.065</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89">
+        <v>371</v>
+      </c>
+      <c r="G89">
+        <v>671</v>
+      </c>
+      <c r="H89">
+        <v>107</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>108</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>108</v>
+      </c>
+      <c r="O89">
+        <v>3.07E-52</v>
+      </c>
+      <c r="P89">
+        <v>193</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Ring billed gull</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Larus delawarensis</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>e0848e25382836806b28673b01f892a2</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2.00_Laughing_gull_Larus_atricilla</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>99.065</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+      <c r="F90">
+        <v>371</v>
+      </c>
+      <c r="G90">
+        <v>671</v>
+      </c>
+      <c r="H90">
+        <v>107</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>108</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>108</v>
+      </c>
+      <c r="O90">
+        <v>3.07E-52</v>
+      </c>
+      <c r="P90">
+        <v>193</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Laughing gull</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Larus atricilla</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>edb60a770bbe58d0ee147058b2a1b13f</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2.00_Duck_sp_Athya_sp</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>99.074</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>17014</v>
+      </c>
+      <c r="G91">
+        <v>85</v>
+      </c>
+      <c r="H91">
+        <v>108</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>108</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>108</v>
+      </c>
+      <c r="O91">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P91">
+        <v>195</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Duck sp</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Aythya sp</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>edb60a770bbe58d0ee147058b2a1b13f</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2.00_common eider_Somateria mollissima_OR_Bufflehead_bucephala albeola_OR_other eiders sea ducks</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>99.074</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <v>17014</v>
+      </c>
+      <c r="G92">
+        <v>85</v>
+      </c>
+      <c r="H92">
+        <v>108</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>108</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>108</v>
+      </c>
+      <c r="O92">
+        <v>8.539999999999999E-53</v>
+      </c>
+      <c r="P92">
+        <v>195</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Common eider or bufflehead or other sea ducks</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Merginae sp</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>edb60a770bbe58d0ee147058b2a1b13f</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2.00_Mallard_other_Anas_sp</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>98.148</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93">
+        <v>17014</v>
+      </c>
+      <c r="G93">
+        <v>85</v>
+      </c>
+      <c r="H93">
+        <v>108</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>108</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>108</v>
+      </c>
+      <c r="O93">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P93">
+        <v>189</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Mallard sp</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Anas sp</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>edb60a770bbe58d0ee147058b2a1b13f</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2.00_Long tailed duck (Clangula hyemalis)_OR_other ducks</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>98.148</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>17014</v>
+      </c>
+      <c r="G94">
+        <v>85</v>
+      </c>
+      <c r="H94">
+        <v>108</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>108</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>108</v>
+      </c>
+      <c r="O94">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P94">
+        <v>189</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Long tailed duck or other ducks</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Clangula hyemalis or other Anatidae sp</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Bird</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>edb60a770bbe58d0ee147058b2a1b13f</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2.00_Canada_goose_other_geese_swans</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>98.148</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95">
+        <v>17014</v>
+      </c>
+      <c r="G95">
+        <v>85</v>
+      </c>
+      <c r="H95">
+        <v>108</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>108</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>108</v>
+      </c>
+      <c r="O95">
+        <v>3.97E-51</v>
+      </c>
+      <c r="P95">
+        <v>189</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Duck geese or swan</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Anatidae sp</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>Bird</t>
         </is>

--- a/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
@@ -518,7 +518,7 @@
         <v>66</v>
       </c>
       <c r="G2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H2">
         <v>106</v>
@@ -622,7 +622,7 @@
         <v>66</v>
       </c>
       <c r="G3">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H3">
         <v>106</v>
@@ -716,7 +716,7 @@
         <v>66</v>
       </c>
       <c r="G4">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -864,6 +864,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -933,6 +968,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1002,6 +1072,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1071,6 +1176,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1140,6 +1280,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1209,6 +1384,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1278,6 +1488,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1347,6 +1592,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Netta</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>rufina</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1416,6 +1696,31 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Merginae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1742,6 +2047,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1811,6 +2151,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1982,6 +2357,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>delawarensis</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2051,6 +2461,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>atricilla</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2073,7 +2518,7 @@
         <v>122</v>
       </c>
       <c r="G24">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H24">
         <v>105</v>
@@ -2127,7 +2572,7 @@
         <v>122</v>
       </c>
       <c r="G25">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H25">
         <v>105</v>
@@ -2228,7 +2673,7 @@
         <v>122</v>
       </c>
       <c r="G26">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H26">
         <v>105</v>
@@ -2282,7 +2727,7 @@
         <v>170</v>
       </c>
       <c r="G27">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H27">
         <v>107</v>
@@ -2326,6 +2771,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2351,7 +2831,7 @@
         <v>170</v>
       </c>
       <c r="G28">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H28">
         <v>107</v>
@@ -2395,6 +2875,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2420,7 +2935,7 @@
         <v>170</v>
       </c>
       <c r="G29">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H29">
         <v>107</v>
@@ -2464,6 +2979,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2929,6 +3479,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2998,6 +3583,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3067,6 +3687,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3136,6 +3791,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3205,6 +3895,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3274,6 +3999,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3343,6 +4103,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3365,7 +4160,7 @@
         <v>2273</v>
       </c>
       <c r="G41">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41">
         <v>105</v>
@@ -3419,7 +4214,7 @@
         <v>2273</v>
       </c>
       <c r="G42">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H42">
         <v>105</v>
@@ -3520,7 +4315,7 @@
         <v>2273</v>
       </c>
       <c r="G43">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H43">
         <v>105</v>
@@ -3574,7 +4369,7 @@
         <v>579</v>
       </c>
       <c r="G44">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H44">
         <v>106</v>
@@ -3678,7 +4473,7 @@
         <v>579</v>
       </c>
       <c r="G45">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H45">
         <v>106</v>
@@ -4321,6 +5116,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4390,6 +5220,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4459,6 +5324,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Netta</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>rufina</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4528,6 +5428,31 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Merginae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4597,6 +5522,36 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>Anas</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4666,6 +5621,31 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5037,6 +6017,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Procellariiformes</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Procellariidae</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>Ardenna</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>gravis</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5106,6 +6121,36 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Procellariiformes</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Procellariidae</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>Calonectris</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5175,6 +6220,36 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Procellariiformes</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Procellariidae</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Ardenna</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5244,6 +6319,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>delawarensis</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5415,6 +6525,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>atricilla</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5484,6 +6629,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>Netta</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>rufina</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5553,6 +6733,36 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>Anas</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5622,6 +6832,31 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Merginae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5793,6 +7028,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>delawarensis</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5862,6 +7132,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>atricilla</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6033,6 +7338,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>delawarensis</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6102,6 +7442,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>atricilla</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6171,6 +7546,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6240,6 +7650,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6309,6 +7754,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6378,6 +7858,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6447,6 +7962,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6516,6 +8066,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6585,6 +8170,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6654,6 +8274,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6723,6 +8378,41 @@
           <t>Human</t>
         </is>
       </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Mammalia</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Primates</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Hominidae</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>Homo</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>sapiens</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6894,6 +8584,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>delawarensis</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6963,6 +8688,41 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Charadriiformes</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Laridae</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>atricilla</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7032,6 +8792,36 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>Aythya</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7101,6 +8891,31 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Merginae</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7170,6 +8985,36 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>Anas</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7239,6 +9084,31 @@
           <t>Bird</t>
         </is>
       </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7306,6 +9176,31 @@
       <c r="S95" t="inlineStr">
         <is>
           <t>Bird</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Animalia</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Chordata</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Aves</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Anseriformes</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Anatidae</t>
         </is>
       </c>
     </row>
